--- a/src/test/java/easyStockTestData/LoginData.xlsx
+++ b/src/test/java/easyStockTestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>http://192.168.1.36/EasyStocksUI/#/adminDashboard</t>
+    <t>Valid</t>
   </si>
   <si>
     <t>Shubam@123</t>
   </si>
   <si>
-    <t>http://192.168.1.36/EasyStocksUI/#/login</t>
+    <t>Invalid</t>
   </si>
   <si>
     <t>admin123</t>
@@ -999,7 +999,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1073,11 +1073,11 @@
     <hyperlink ref="B3" r:id="rId2" display="Shubam@123"/>
     <hyperlink ref="A4" r:id="rId2" display="Shubam@123"/>
     <hyperlink ref="B4" r:id="rId2" display="Shubam@123"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://192.168.1.36/EasyStocksUI/#/login" tooltip="http://192.168.1.36/EasyStocksUI/#/login"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://192.168.1.36/EasyStocksUI/#/login" tooltip="http://192.168.1.36/EasyStocksUI/#/login"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://192.168.1.36/EasyStocksUI/#/login" tooltip="http://192.168.1.36/EasyStocksUI/#/login"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://192.168.1.36/EasyStocksUI/#/login" tooltip="http://192.168.1.36/EasyStocksUI/#/login"/>
-    <hyperlink ref="C2" r:id="rId4" display="http://192.168.1.36/EasyStocksUI/#/adminDashboard" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
+    <hyperlink ref="C3" r:id="rId3" display="Invalid" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
+    <hyperlink ref="C4" r:id="rId3" display="Invalid" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
+    <hyperlink ref="C5" r:id="rId3" display="Invalid" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
+    <hyperlink ref="C6" r:id="rId3" display="Invalid" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
+    <hyperlink ref="C2" r:id="rId3" display="Valid" tooltip="http://192.168.1.36/EasyStocksUI/#/adminDashboard"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
